--- a/Document/SQL/Tables.xlsx
+++ b/Document/SQL/Tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>SPID</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>View</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Type(CREATED , UPDATED, DELETED,  PRINT)</t>
   </si>
 </sst>
 </file>
@@ -247,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,11 +276,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1777,10 +1786,12 @@
         <v>7</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="1"/>
+      <c r="F16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1855,7 +1866,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1931,8 +1942,8 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="5" t="s">
-        <v>6</v>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2008,7 +2019,9 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2083,8 +2096,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2158,8 +2170,8 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2235,8 +2247,8 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2312,8 +2324,8 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2389,8 +2401,8 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2466,8 +2478,8 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2620,7 +2632,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="1"/>
@@ -4998,6 +5010,7 @@
     </row>
     <row r="58" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>

--- a/Document/SQL/Tables.xlsx
+++ b/Document/SQL/Tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>SPID</t>
   </si>
@@ -135,6 +135,18 @@
   <si>
     <t>Type(CREATED , UPDATED, DELETED,  PRINT)</t>
   </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>ImageID</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
 </sst>
 </file>
 
@@ -144,7 +156,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -152,7 +164,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -287,7 +299,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -591,17 +603,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="73" width="25.7109375" style="2" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="73" width="25.75" style="2" customWidth="1"/>
+    <col min="74" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -676,7 +688,7 @@
       <c r="BT1" s="1"/>
       <c r="BU1" s="1"/>
     </row>
-    <row r="2" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -751,7 +763,7 @@
       <c r="BT2" s="1"/>
       <c r="BU2" s="1"/>
     </row>
-    <row r="3" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -826,7 +838,7 @@
       <c r="BT3" s="1"/>
       <c r="BU3" s="1"/>
     </row>
-    <row r="4" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -905,7 +917,7 @@
       <c r="BT4" s="1"/>
       <c r="BU4" s="1"/>
     </row>
-    <row r="5" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>0</v>
@@ -984,7 +996,7 @@
       <c r="BT5" s="1"/>
       <c r="BU5" s="1"/>
     </row>
-    <row r="6" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -1063,7 +1075,7 @@
       <c r="BT6" s="1"/>
       <c r="BU6" s="1"/>
     </row>
-    <row r="7" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>1</v>
@@ -1142,7 +1154,7 @@
       <c r="BT7" s="1"/>
       <c r="BU7" s="1"/>
     </row>
-    <row r="8" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
         <v>2</v>
@@ -1221,7 +1233,7 @@
       <c r="BT8" s="1"/>
       <c r="BU8" s="1"/>
     </row>
-    <row r="9" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
@@ -1300,7 +1312,7 @@
       <c r="BT9" s="1"/>
       <c r="BU9" s="1"/>
     </row>
-    <row r="10" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
@@ -1379,7 +1391,7 @@
       <c r="BT10" s="1"/>
       <c r="BU10" s="1"/>
     </row>
-    <row r="11" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>5</v>
@@ -1458,7 +1470,7 @@
       <c r="BT11" s="1"/>
       <c r="BU11" s="1"/>
     </row>
-    <row r="12" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
         <v>6</v>
@@ -1537,7 +1549,7 @@
       <c r="BT12" s="1"/>
       <c r="BU12" s="1"/>
     </row>
-    <row r="13" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
@@ -1616,7 +1628,7 @@
       <c r="BT13" s="1"/>
       <c r="BU13" s="1"/>
     </row>
-    <row r="14" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>16</v>
@@ -1697,7 +1709,7 @@
       <c r="BT14" s="1"/>
       <c r="BU14" s="1"/>
     </row>
-    <row r="15" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
         <v>7</v>
@@ -1778,7 +1790,7 @@
       <c r="BT15" s="1"/>
       <c r="BU15" s="1"/>
     </row>
-    <row r="16" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1859,7 +1871,7 @@
       <c r="BT16" s="1"/>
       <c r="BU16" s="1"/>
     </row>
-    <row r="17" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1936,7 +1948,7 @@
       <c r="BT17" s="1"/>
       <c r="BU17" s="1"/>
     </row>
-    <row r="18" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2013,7 +2025,7 @@
       <c r="BT18" s="1"/>
       <c r="BU18" s="1"/>
     </row>
-    <row r="19" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2090,7 +2102,7 @@
       <c r="BT19" s="1"/>
       <c r="BU19" s="1"/>
     </row>
-    <row r="20" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2164,7 +2176,7 @@
       <c r="BT20" s="1"/>
       <c r="BU20" s="1"/>
     </row>
-    <row r="21" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2239,7 +2251,7 @@
       <c r="BT21" s="1"/>
       <c r="BU21" s="1"/>
     </row>
-    <row r="22" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
         <v>19</v>
@@ -2316,7 +2328,7 @@
       <c r="BT22" s="1"/>
       <c r="BU22" s="1"/>
     </row>
-    <row r="23" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="6" t="s">
         <v>3</v>
@@ -2393,7 +2405,7 @@
       <c r="BT23" s="1"/>
       <c r="BU23" s="1"/>
     </row>
-    <row r="24" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="4" t="s">
         <v>1</v>
@@ -2470,7 +2482,7 @@
       <c r="BT24" s="1"/>
       <c r="BU24" s="1"/>
     </row>
-    <row r="25" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="4" t="s">
         <v>18</v>
@@ -2478,7 +2490,9 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2547,7 +2561,7 @@
       <c r="BT25" s="1"/>
       <c r="BU25" s="1"/>
     </row>
-    <row r="26" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="4" t="s">
         <v>5</v>
@@ -2556,8 +2570,9 @@
       <c r="D26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2626,7 +2641,7 @@
       <c r="BT26" s="1"/>
       <c r="BU26" s="1"/>
     </row>
-    <row r="27" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
         <v>6</v>
@@ -2636,7 +2651,9 @@
         <v>25</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2705,7 +2722,7 @@
       <c r="BT27" s="1"/>
       <c r="BU27" s="1"/>
     </row>
-    <row r="28" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
         <v>15</v>
@@ -2715,7 +2732,9 @@
         <v>24</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2784,7 +2803,7 @@
       <c r="BT28" s="1"/>
       <c r="BU28" s="1"/>
     </row>
-    <row r="29" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="4" t="s">
         <v>16</v>
@@ -2794,7 +2813,9 @@
         <v>23</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2863,7 +2884,7 @@
       <c r="BT29" s="1"/>
       <c r="BU29" s="1"/>
     </row>
-    <row r="30" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
         <v>7</v>
@@ -2873,7 +2894,9 @@
         <v>7</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2942,13 +2965,15 @@
       <c r="BT30" s="1"/>
       <c r="BU30" s="1"/>
     </row>
-    <row r="31" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3017,7 +3042,7 @@
       <c r="BT31" s="1"/>
       <c r="BU31" s="1"/>
     </row>
-    <row r="32" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3092,7 +3117,7 @@
       <c r="BT32" s="1"/>
       <c r="BU32" s="1"/>
     </row>
-    <row r="33" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3166,7 +3191,7 @@
       <c r="BT33" s="1"/>
       <c r="BU33" s="1"/>
     </row>
-    <row r="34" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3241,7 +3266,7 @@
       <c r="BT34" s="1"/>
       <c r="BU34" s="1"/>
     </row>
-    <row r="35" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3316,7 +3341,7 @@
       <c r="BT35" s="1"/>
       <c r="BU35" s="1"/>
     </row>
-    <row r="36" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="3" t="s">
         <v>26</v>
@@ -3395,7 +3420,7 @@
       <c r="BT36" s="1"/>
       <c r="BU36" s="1"/>
     </row>
-    <row r="37" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="4" t="s">
         <v>28</v>
@@ -3474,7 +3499,7 @@
       <c r="BT37" s="1"/>
       <c r="BU37" s="1"/>
     </row>
-    <row r="38" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="4" t="s">
         <v>1</v>
@@ -3553,7 +3578,7 @@
       <c r="BT38" s="1"/>
       <c r="BU38" s="1"/>
     </row>
-    <row r="39" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="4" t="s">
         <v>32</v>
@@ -3632,7 +3657,7 @@
       <c r="BT39" s="1"/>
       <c r="BU39" s="1"/>
     </row>
-    <row r="40" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="4" t="s">
         <v>30</v>
@@ -3711,7 +3736,7 @@
       <c r="BT40" s="1"/>
       <c r="BU40" s="1"/>
     </row>
-    <row r="41" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="4" t="s">
         <v>29</v>
@@ -3790,7 +3815,7 @@
       <c r="BT41" s="1"/>
       <c r="BU41" s="1"/>
     </row>
-    <row r="42" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
         <v>33</v>
@@ -3869,7 +3894,7 @@
       <c r="BT42" s="1"/>
       <c r="BU42" s="1"/>
     </row>
-    <row r="43" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3946,7 +3971,7 @@
       <c r="BT43" s="1"/>
       <c r="BU43" s="1"/>
     </row>
-    <row r="44" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4023,7 +4048,7 @@
       <c r="BT44" s="1"/>
       <c r="BU44" s="1"/>
     </row>
-    <row r="45" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4098,7 +4123,7 @@
       <c r="BT45" s="1"/>
       <c r="BU45" s="1"/>
     </row>
-    <row r="46" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4173,7 +4198,7 @@
       <c r="BT46" s="1"/>
       <c r="BU46" s="1"/>
     </row>
-    <row r="47" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4248,7 +4273,7 @@
       <c r="BT47" s="1"/>
       <c r="BU47" s="1"/>
     </row>
-    <row r="48" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="3" t="s">
         <v>34</v>
@@ -4325,7 +4350,7 @@
       <c r="BT48" s="1"/>
       <c r="BU48" s="1"/>
     </row>
-    <row r="49" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="4" t="s">
         <v>35</v>
@@ -4402,7 +4427,7 @@
       <c r="BT49" s="1"/>
       <c r="BU49" s="1"/>
     </row>
-    <row r="50" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="4" t="s">
         <v>24</v>
@@ -4479,7 +4504,7 @@
       <c r="BT50" s="1"/>
       <c r="BU50" s="1"/>
     </row>
-    <row r="51" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="4" t="s">
         <v>8</v>
@@ -4556,7 +4581,7 @@
       <c r="BT51" s="1"/>
       <c r="BU51" s="1"/>
     </row>
-    <row r="52" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="4" t="s">
         <v>36</v>
@@ -4633,7 +4658,7 @@
       <c r="BT52" s="1"/>
       <c r="BU52" s="1"/>
     </row>
-    <row r="53" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
         <v>37</v>
@@ -4710,7 +4735,7 @@
       <c r="BT53" s="1"/>
       <c r="BU53" s="1"/>
     </row>
-    <row r="54" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4785,7 +4810,7 @@
       <c r="BT54" s="1"/>
       <c r="BU54" s="1"/>
     </row>
-    <row r="55" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4860,7 +4885,7 @@
       <c r="BT55" s="1"/>
       <c r="BU55" s="1"/>
     </row>
-    <row r="56" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -4934,7 +4959,7 @@
       <c r="BT56" s="1"/>
       <c r="BU56" s="1"/>
     </row>
-    <row r="57" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -5008,15 +5033,17 @@
       <c r="BT57" s="1"/>
       <c r="BU57" s="1"/>
     </row>
-    <row r="58" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
+      <c r="F60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/SQL/Tables.xlsx
+++ b/Document/SQL/Tables.xlsx
@@ -14,138 +14,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
-  <si>
-    <t>SPID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>CategoryID</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>CreatedBy</t>
-  </si>
-  <si>
-    <t>CreatedDate</t>
-  </si>
-  <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Accounts</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>Products</t>
   </si>
   <si>
-    <t>AccountID</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>ModifiedBy</t>
-  </si>
-  <si>
-    <t>ModifiedDate</t>
-  </si>
-  <si>
     <t>Bills</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Categories</t>
   </si>
   <si>
     <t>Logs</t>
   </si>
   <si>
-    <t>LogID</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>BillID</t>
-  </si>
-  <si>
-    <t>ProductID</t>
-  </si>
-  <si>
-    <t>BillDetailID</t>
-  </si>
-  <si>
     <t>Customers</t>
   </si>
   <si>
     <t>BillDetails</t>
   </si>
   <si>
-    <t>CustomerID</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>BirthDay</t>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>ProductStatus</t>
   </si>
   <si>
-    <t>ProductStatusID</t>
-  </si>
-  <si>
-    <t>Sold</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Type(CREATED , UPDATED, DELETED,  PRINT)</t>
   </si>
   <si>
     <t>Images</t>
   </si>
   <si>
-    <t>ImageID</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Priority</t>
+    <t>Admins</t>
+  </si>
+  <si>
+    <t>AccountID : int</t>
+  </si>
+  <si>
+    <t>Account : varchar(20)</t>
+  </si>
+  <si>
+    <t>Password : nvarchar(20)</t>
+  </si>
+  <si>
+    <t>BirthDay : date</t>
+  </si>
+  <si>
+    <t>Phone : varchar(20)</t>
+  </si>
+  <si>
+    <t>Mail : varchar(200)</t>
+  </si>
+  <si>
+    <t>Role : int</t>
+  </si>
+  <si>
+    <t>CreatedBy : int</t>
+  </si>
+  <si>
+    <t>CreatedDate : date</t>
+  </si>
+  <si>
+    <t>ModifiedBy : int</t>
+  </si>
+  <si>
+    <t>ModifiedDate : date</t>
+  </si>
+  <si>
+    <t>Deleted : int</t>
+  </si>
+  <si>
+    <t>BillDetailID : int</t>
+  </si>
+  <si>
+    <t>ProductID : int</t>
+  </si>
+  <si>
+    <t>BillID : int</t>
+  </si>
+  <si>
+    <t>status(Setup, Processing, Finished)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustomerID : int </t>
+  </si>
+  <si>
+    <t>Status : varchar(10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CategoryID : int</t>
+  </si>
+  <si>
+    <t>Name : nvarchar(100)</t>
+  </si>
+  <si>
+    <t>Description : nvarchar(500)</t>
+  </si>
+  <si>
+    <t>CustomerID : int</t>
+  </si>
+  <si>
+    <t>Name : nvarchar(50)</t>
+  </si>
+  <si>
+    <t>Birthday : date</t>
+  </si>
+  <si>
+    <t>Address : varchar(200)</t>
+  </si>
+  <si>
+    <t>ImageID : int</t>
+  </si>
+  <si>
+    <t>Name : nvarchar(200)</t>
+  </si>
+  <si>
+    <t>Link : nvarchar(200)</t>
+  </si>
+  <si>
+    <t>Priority : int</t>
+  </si>
+  <si>
+    <t>LogID : int</t>
+  </si>
+  <si>
+    <t>Type : varchar(10)</t>
+  </si>
+  <si>
+    <t>Content : nvarchar(500)</t>
+  </si>
+  <si>
+    <t>SPID : int</t>
+  </si>
+  <si>
+    <t>CategoryID : int</t>
+  </si>
+  <si>
+    <t>Price : float</t>
+  </si>
+  <si>
+    <t>InDate : date</t>
+  </si>
+  <si>
+    <t>OutDate : date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ModifiedDate : date</t>
+  </si>
+  <si>
+    <t>ProductStatusID : int</t>
+  </si>
+  <si>
+    <t>Quantity : int</t>
+  </si>
+  <si>
+    <t>Sold : int</t>
+  </si>
+  <si>
+    <t>View : int</t>
   </si>
 </sst>
 </file>
@@ -156,7 +180,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -164,7 +188,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -201,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -261,11 +285,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,9 +330,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -603,17 +642,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="73" width="25.75" style="2" customWidth="1"/>
-    <col min="74" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="2" customWidth="1"/>
+    <col min="3" max="73" width="25.7109375" style="2" customWidth="1"/>
+    <col min="74" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -688,7 +729,7 @@
       <c r="BT1" s="1"/>
       <c r="BU1" s="1"/>
     </row>
-    <row r="2" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -763,7 +804,7 @@
       <c r="BT2" s="1"/>
       <c r="BU2" s="1"/>
     </row>
-    <row r="3" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -838,17 +879,19 @@
       <c r="BT3" s="1"/>
       <c r="BU3" s="1"/>
     </row>
-    <row r="4" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -917,17 +960,19 @@
       <c r="BT4" s="1"/>
       <c r="BU4" s="1"/>
     </row>
-    <row r="5" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -996,18 +1041,22 @@
       <c r="BT5" s="1"/>
       <c r="BU5" s="1"/>
     </row>
-    <row r="6" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1075,17 +1124,19 @@
       <c r="BT6" s="1"/>
       <c r="BU6" s="1"/>
     </row>
-    <row r="7" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1154,17 +1205,19 @@
       <c r="BT7" s="1"/>
       <c r="BU7" s="1"/>
     </row>
-    <row r="8" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1233,17 +1286,19 @@
       <c r="BT8" s="1"/>
       <c r="BU8" s="1"/>
     </row>
-    <row r="9" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1312,14 +1367,14 @@
       <c r="BT9" s="1"/>
       <c r="BU9" s="1"/>
     </row>
-    <row r="10" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1391,14 +1446,14 @@
       <c r="BT10" s="1"/>
       <c r="BU10" s="1"/>
     </row>
-    <row r="11" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1470,14 +1525,14 @@
       <c r="BT11" s="1"/>
       <c r="BU11" s="1"/>
     </row>
-    <row r="12" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1549,17 +1604,19 @@
       <c r="BT12" s="1"/>
       <c r="BU12" s="1"/>
     </row>
-    <row r="13" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1628,18 +1685,18 @@
       <c r="BT13" s="1"/>
       <c r="BU13" s="1"/>
     </row>
-    <row r="14" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="3" t="s">
-        <v>20</v>
+      <c r="F14" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1709,18 +1766,18 @@
       <c r="BT14" s="1"/>
       <c r="BU14" s="1"/>
     </row>
-    <row r="15" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="6" t="s">
-        <v>21</v>
+      <c r="F15" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1790,19 +1847,18 @@
       <c r="BT15" s="1"/>
       <c r="BU15" s="1"/>
     </row>
-    <row r="16" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>39</v>
+      <c r="F16" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1871,14 +1927,14 @@
       <c r="BT16" s="1"/>
       <c r="BU16" s="1"/>
     </row>
-    <row r="17" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1948,14 +2004,14 @@
       <c r="BT17" s="1"/>
       <c r="BU17" s="1"/>
     </row>
-    <row r="18" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="4" t="s">
-        <v>5</v>
+      <c r="F18" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2025,15 +2081,13 @@
       <c r="BT18" s="1"/>
       <c r="BU18" s="1"/>
     </row>
-    <row r="19" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2102,7 +2156,7 @@
       <c r="BT19" s="1"/>
       <c r="BU19" s="1"/>
     </row>
-    <row r="20" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2176,7 +2230,7 @@
       <c r="BT20" s="1"/>
       <c r="BU20" s="1"/>
     </row>
-    <row r="21" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2251,11 +2305,9 @@
       <c r="BT21" s="1"/>
       <c r="BU21" s="1"/>
     </row>
-    <row r="22" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2328,15 +2380,19 @@
       <c r="BT22" s="1"/>
       <c r="BU22" s="1"/>
     </row>
-    <row r="23" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="6" t="s">
-        <v>3</v>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2405,15 +2461,19 @@
       <c r="BT23" s="1"/>
       <c r="BU23" s="1"/>
     </row>
-    <row r="24" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="4" t="s">
-        <v>1</v>
+      <c r="B24" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2482,16 +2542,18 @@
       <c r="BT24" s="1"/>
       <c r="BU24" s="1"/>
     </row>
-    <row r="25" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="3" t="s">
-        <v>40</v>
+      <c r="F25" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
@@ -2561,17 +2623,17 @@
       <c r="BT25" s="1"/>
       <c r="BU25" s="1"/>
     </row>
-    <row r="26" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>41</v>
+      <c r="D26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2641,18 +2703,18 @@
       <c r="BT26" s="1"/>
       <c r="BU26" s="1"/>
     </row>
-    <row r="27" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="8" t="s">
-        <v>25</v>
+      <c r="D27" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2722,18 +2784,16 @@
       <c r="BT27" s="1"/>
       <c r="BU27" s="1"/>
     </row>
-    <row r="28" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="4" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2803,18 +2863,16 @@
       <c r="BT28" s="1"/>
       <c r="BU28" s="1"/>
     </row>
-    <row r="29" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="4" t="s">
-        <v>42</v>
+      <c r="F29" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2884,19 +2942,15 @@
       <c r="BT29" s="1"/>
       <c r="BU29" s="1"/>
     </row>
-    <row r="30" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>7</v>
+      <c r="B30" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2965,15 +3019,14 @@
       <c r="BT30" s="1"/>
       <c r="BU30" s="1"/>
     </row>
-    <row r="31" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3042,7 +3095,7 @@
       <c r="BT31" s="1"/>
       <c r="BU31" s="1"/>
     </row>
-    <row r="32" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3117,7 +3170,7 @@
       <c r="BT32" s="1"/>
       <c r="BU32" s="1"/>
     </row>
-    <row r="33" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3191,7 +3244,7 @@
       <c r="BT33" s="1"/>
       <c r="BU33" s="1"/>
     </row>
-    <row r="34" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3266,7 +3319,7 @@
       <c r="BT34" s="1"/>
       <c r="BU34" s="1"/>
     </row>
-    <row r="35" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3341,14 +3394,12 @@
       <c r="BT35" s="1"/>
       <c r="BU35" s="1"/>
     </row>
-    <row r="36" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -3420,14 +3471,14 @@
       <c r="BT36" s="1"/>
       <c r="BU36" s="1"/>
     </row>
-    <row r="37" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="4" t="s">
-        <v>28</v>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -3499,14 +3550,14 @@
       <c r="BT37" s="1"/>
       <c r="BU37" s="1"/>
     </row>
-    <row r="38" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -3578,17 +3629,19 @@
       <c r="BT38" s="1"/>
       <c r="BU38" s="1"/>
     </row>
-    <row r="39" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="12"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -3657,14 +3710,14 @@
       <c r="BT39" s="1"/>
       <c r="BU39" s="1"/>
     </row>
-    <row r="40" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -3736,14 +3789,14 @@
       <c r="BT40" s="1"/>
       <c r="BU40" s="1"/>
     </row>
-    <row r="41" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3815,14 +3868,14 @@
       <c r="BT41" s="1"/>
       <c r="BU41" s="1"/>
     </row>
-    <row r="42" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="5" t="s">
-        <v>33</v>
+      <c r="B42" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -3894,12 +3947,14 @@
       <c r="BT42" s="1"/>
       <c r="BU42" s="1"/>
     </row>
-    <row r="43" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -3971,12 +4026,12 @@
       <c r="BT43" s="1"/>
       <c r="BU43" s="1"/>
     </row>
-    <row r="44" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -4048,7 +4103,7 @@
       <c r="BT44" s="1"/>
       <c r="BU44" s="1"/>
     </row>
-    <row r="45" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4123,7 +4178,7 @@
       <c r="BT45" s="1"/>
       <c r="BU45" s="1"/>
     </row>
-    <row r="46" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4198,7 +4253,7 @@
       <c r="BT46" s="1"/>
       <c r="BU46" s="1"/>
     </row>
-    <row r="47" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4273,11 +4328,9 @@
       <c r="BT47" s="1"/>
       <c r="BU47" s="1"/>
     </row>
-    <row r="48" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4350,11 +4403,8 @@
       <c r="BT48" s="1"/>
       <c r="BU48" s="1"/>
     </row>
-    <row r="49" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4427,11 +4477,8 @@
       <c r="BT49" s="1"/>
       <c r="BU49" s="1"/>
     </row>
-    <row r="50" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4504,11 +4551,8 @@
       <c r="BT50" s="1"/>
       <c r="BU50" s="1"/>
     </row>
-    <row r="51" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4581,11 +4625,8 @@
       <c r="BT51" s="1"/>
       <c r="BU51" s="1"/>
     </row>
-    <row r="52" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4658,11 +4699,8 @@
       <c r="BT52" s="1"/>
       <c r="BU52" s="1"/>
     </row>
-    <row r="53" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4735,9 +4773,8 @@
       <c r="BT53" s="1"/>
       <c r="BU53" s="1"/>
     </row>
-    <row r="54" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4810,7 +4847,7 @@
       <c r="BT54" s="1"/>
       <c r="BU54" s="1"/>
     </row>
-    <row r="55" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4885,8 +4922,9 @@
       <c r="BT55" s="1"/>
       <c r="BU55" s="1"/>
     </row>
-    <row r="56" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4959,7 +4997,7 @@
       <c r="BT56" s="1"/>
       <c r="BU56" s="1"/>
     </row>
-    <row r="57" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -5033,19 +5071,22 @@
       <c r="BT57" s="1"/>
       <c r="BU57" s="1"/>
     </row>
-    <row r="58" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="F60" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E39:F39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Document/SQL/Tables.xlsx
+++ b/Document/SQL/Tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>Products</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>ModifiedDate : date</t>
-  </si>
-  <si>
-    <t>Deleted : int</t>
   </si>
   <si>
     <t>BillDetailID : int</t>
@@ -180,7 +177,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -188,7 +185,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -338,7 +335,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -640,21 +637,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU60"/>
+  <dimension ref="A1:BU59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="2" customWidth="1"/>
-    <col min="3" max="73" width="25.7109375" style="2" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="25.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="2" customWidth="1"/>
+    <col min="3" max="73" width="25.75" style="2" customWidth="1"/>
+    <col min="74" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -729,7 +726,7 @@
       <c r="BT1" s="1"/>
       <c r="BU1" s="1"/>
     </row>
-    <row r="2" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -804,7 +801,7 @@
       <c r="BT2" s="1"/>
       <c r="BU2" s="1"/>
     </row>
-    <row r="3" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -879,7 +876,7 @@
       <c r="BT3" s="1"/>
       <c r="BU3" s="1"/>
     </row>
-    <row r="4" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -960,10 +957,10 @@
       <c r="BT4" s="1"/>
       <c r="BU4" s="1"/>
     </row>
-    <row r="5" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="6" t="s">
@@ -971,7 +968,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1041,10 +1038,10 @@
       <c r="BT5" s="1"/>
       <c r="BU5" s="1"/>
     </row>
-    <row r="6" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
@@ -1052,7 +1049,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>7</v>
@@ -1124,10 +1121,10 @@
       <c r="BT6" s="1"/>
       <c r="BU6" s="1"/>
     </row>
-    <row r="7" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="4" t="s">
@@ -1135,7 +1132,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1205,10 +1202,10 @@
       <c r="BT7" s="1"/>
       <c r="BU7" s="1"/>
     </row>
-    <row r="8" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
@@ -1286,10 +1283,10 @@
       <c r="BT8" s="1"/>
       <c r="BU8" s="1"/>
     </row>
-    <row r="9" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="4" t="s">
@@ -1367,10 +1364,10 @@
       <c r="BT9" s="1"/>
       <c r="BU9" s="1"/>
     </row>
-    <row r="10" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="4" t="s">
@@ -1446,10 +1443,10 @@
       <c r="BT10" s="1"/>
       <c r="BU10" s="1"/>
     </row>
-    <row r="11" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="4" t="s">
@@ -1525,7 +1522,7 @@
       <c r="BT11" s="1"/>
       <c r="BU11" s="1"/>
     </row>
-    <row r="12" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
         <v>17</v>
@@ -1604,7 +1601,7 @@
       <c r="BT12" s="1"/>
       <c r="BU12" s="1"/>
     </row>
-    <row r="13" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
         <v>18</v>
@@ -1685,7 +1682,7 @@
       <c r="BT13" s="1"/>
       <c r="BU13" s="1"/>
     </row>
-    <row r="14" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>19</v>
@@ -1696,7 +1693,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1766,18 +1763,18 @@
       <c r="BT14" s="1"/>
       <c r="BU14" s="1"/>
     </row>
-    <row r="15" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="4" t="s">
-        <v>47</v>
+      <c r="B15" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1847,18 +1844,14 @@
       <c r="BT15" s="1"/>
       <c r="BU15" s="1"/>
     </row>
-    <row r="16" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1927,14 +1920,14 @@
       <c r="BT16" s="1"/>
       <c r="BU16" s="1"/>
     </row>
-    <row r="17" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2004,14 +1997,14 @@
       <c r="BT17" s="1"/>
       <c r="BU17" s="1"/>
     </row>
-    <row r="18" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2081,7 +2074,7 @@
       <c r="BT18" s="1"/>
       <c r="BU18" s="1"/>
     </row>
-    <row r="19" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2156,7 +2149,7 @@
       <c r="BT19" s="1"/>
       <c r="BU19" s="1"/>
     </row>
-    <row r="20" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2230,7 +2223,7 @@
       <c r="BT20" s="1"/>
       <c r="BU20" s="1"/>
     </row>
-    <row r="21" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2305,11 +2298,15 @@
       <c r="BT21" s="1"/>
       <c r="BU21" s="1"/>
     </row>
-    <row r="22" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -2380,14 +2377,14 @@
       <c r="BT22" s="1"/>
       <c r="BU22" s="1"/>
     </row>
-    <row r="23" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
-        <v>2</v>
+      <c r="B23" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="3" t="s">
@@ -2461,18 +2458,18 @@
       <c r="BT23" s="1"/>
       <c r="BU23" s="1"/>
     </row>
-    <row r="24" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
@@ -2542,18 +2539,18 @@
       <c r="BT24" s="1"/>
       <c r="BU24" s="1"/>
     </row>
-    <row r="25" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
@@ -2623,17 +2620,15 @@
       <c r="BT25" s="1"/>
       <c r="BU25" s="1"/>
     </row>
-    <row r="26" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="D26" s="1"/>
       <c r="F26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2703,18 +2698,16 @@
       <c r="BT26" s="1"/>
       <c r="BU26" s="1"/>
     </row>
-    <row r="27" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2784,16 +2777,16 @@
       <c r="BT27" s="1"/>
       <c r="BU27" s="1"/>
     </row>
-    <row r="28" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="4" t="s">
-        <v>38</v>
+      <c r="F28" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2863,17 +2856,15 @@
       <c r="BT28" s="1"/>
       <c r="BU28" s="1"/>
     </row>
-    <row r="29" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="4" t="s">
-        <v>19</v>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2942,15 +2933,12 @@
       <c r="BT29" s="1"/>
       <c r="BU29" s="1"/>
     </row>
-    <row r="30" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3019,14 +3007,12 @@
       <c r="BT30" s="1"/>
       <c r="BU30" s="1"/>
     </row>
-    <row r="31" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3095,7 +3081,7 @@
       <c r="BT31" s="1"/>
       <c r="BU31" s="1"/>
     </row>
-    <row r="32" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3170,10 +3156,11 @@
       <c r="BT32" s="1"/>
       <c r="BU32" s="1"/>
     </row>
-    <row r="33" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -3244,11 +3231,13 @@
       <c r="BT33" s="1"/>
       <c r="BU33" s="1"/>
     </row>
-    <row r="34" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -3319,11 +3308,15 @@
       <c r="BT34" s="1"/>
       <c r="BU34" s="1"/>
     </row>
-    <row r="35" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -3394,12 +3387,14 @@
       <c r="BT35" s="1"/>
       <c r="BU35" s="1"/>
     </row>
-    <row r="36" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="3" t="s">
-        <v>1</v>
+      <c r="D36" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -3471,14 +3466,14 @@
       <c r="BT36" s="1"/>
       <c r="BU36" s="1"/>
     </row>
-    <row r="37" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="3" t="s">
-        <v>4</v>
+      <c r="B37" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -3550,17 +3545,17 @@
       <c r="BT37" s="1"/>
       <c r="BU37" s="1"/>
     </row>
-    <row r="38" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -3629,19 +3624,19 @@
       <c r="BT38" s="1"/>
       <c r="BU38" s="1"/>
     </row>
-    <row r="39" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -3710,14 +3705,14 @@
       <c r="BT39" s="1"/>
       <c r="BU39" s="1"/>
     </row>
-    <row r="40" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -3789,14 +3784,14 @@
       <c r="BT40" s="1"/>
       <c r="BU40" s="1"/>
     </row>
-    <row r="41" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="4" t="s">
-        <v>14</v>
+      <c r="B41" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="4" t="s">
-        <v>18</v>
+      <c r="D41" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3868,15 +3863,11 @@
       <c r="BT41" s="1"/>
       <c r="BU41" s="1"/>
     </row>
-    <row r="42" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -3947,15 +3938,11 @@
       <c r="BT42" s="1"/>
       <c r="BU42" s="1"/>
     </row>
-    <row r="43" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -4026,13 +4013,11 @@
       <c r="BT43" s="1"/>
       <c r="BU43" s="1"/>
     </row>
-    <row r="44" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -4103,7 +4088,7 @@
       <c r="BT44" s="1"/>
       <c r="BU44" s="1"/>
     </row>
-    <row r="45" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4178,7 +4163,7 @@
       <c r="BT45" s="1"/>
       <c r="BU45" s="1"/>
     </row>
-    <row r="46" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4253,9 +4238,8 @@
       <c r="BT46" s="1"/>
       <c r="BU46" s="1"/>
     </row>
-    <row r="47" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4328,9 +4312,8 @@
       <c r="BT47" s="1"/>
       <c r="BU47" s="1"/>
     </row>
-    <row r="48" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4403,7 +4386,7 @@
       <c r="BT48" s="1"/>
       <c r="BU48" s="1"/>
     </row>
-    <row r="49" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -4477,7 +4460,7 @@
       <c r="BT49" s="1"/>
       <c r="BU49" s="1"/>
     </row>
-    <row r="50" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -4551,7 +4534,7 @@
       <c r="BT50" s="1"/>
       <c r="BU50" s="1"/>
     </row>
-    <row r="51" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -4625,7 +4608,7 @@
       <c r="BT51" s="1"/>
       <c r="BU51" s="1"/>
     </row>
-    <row r="52" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -4699,8 +4682,9 @@
       <c r="BT52" s="1"/>
       <c r="BU52" s="1"/>
     </row>
-    <row r="53" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4773,8 +4757,9 @@
       <c r="BT53" s="1"/>
       <c r="BU53" s="1"/>
     </row>
-    <row r="54" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4847,9 +4832,8 @@
       <c r="BT54" s="1"/>
       <c r="BU54" s="1"/>
     </row>
-    <row r="55" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4922,9 +4906,8 @@
       <c r="BT55" s="1"/>
       <c r="BU55" s="1"/>
     </row>
-    <row r="56" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4997,7 +4980,7 @@
       <c r="BT56" s="1"/>
       <c r="BU56" s="1"/>
     </row>
-    <row r="57" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -5071,22 +5054,13 @@
       <c r="BT57" s="1"/>
       <c r="BU57" s="1"/>
     </row>
-    <row r="58" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="1"/>
+    <row r="58" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="1"/>
+    <row r="59" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E39:F39"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
